--- a/test/functional/xlsx_files/chart_str02.xlsx
+++ b/test/functional/xlsx_files/chart_str02.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -80,11 +80,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:strRef>
               <c:f>Sheet1!$A$1:$A$5</c:f>
@@ -136,11 +131,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:strRef>
               <c:f>Sheet1!$A$1:$A$5</c:f>
@@ -189,23 +179,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="41671680"/>
-        <c:axId val="41669376"/>
+        <c:axId val="50010003"/>
+        <c:axId val="50010004"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41671680"/>
+        <c:axId val="50010003"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41669376"/>
+        <c:crossAx val="50010004"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41669376"/>
+        <c:axId val="50010004"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -213,7 +203,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41671680"/>
+        <c:crossAx val="50010003"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>

--- a/test/functional/xlsx_files/chart_str02.xlsx
+++ b/test/functional/xlsx_files/chart_str02.xlsx
@@ -80,6 +80,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:xVal>
             <c:strRef>
               <c:f>Sheet1!$A$1:$A$5</c:f>
@@ -131,6 +136,11 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:xVal>
             <c:strRef>
               <c:f>Sheet1!$A$1:$A$5</c:f>
@@ -179,23 +189,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="50010003"/>
-        <c:axId val="50010004"/>
+        <c:axId val="41671680"/>
+        <c:axId val="41669376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50010003"/>
+        <c:axId val="41671680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010004"/>
+        <c:crossAx val="41669376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50010004"/>
+        <c:axId val="41669376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -203,7 +213,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010003"/>
+        <c:crossAx val="41671680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
